--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="188">
   <si>
     <t>Pin Out</t>
   </si>
@@ -391,6 +391,195 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>PIN No</t>
+  </si>
+  <si>
+    <t>Special Comments</t>
+  </si>
+  <si>
+    <t>PE 0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>PROGRAMMER UART</t>
+  </si>
+  <si>
+    <t>PA0 RX0</t>
+  </si>
+  <si>
+    <t>PA1 TX0</t>
+  </si>
+  <si>
+    <t>PC4,PB0 RX1</t>
+  </si>
+  <si>
+    <t>PC5,PB1 TX1</t>
+  </si>
+  <si>
+    <t>PD6 RX2</t>
+  </si>
+  <si>
+    <t>PD7 TX2</t>
+  </si>
+  <si>
+    <t>PC6 RX3</t>
+  </si>
+  <si>
+    <t>PC7 RX3</t>
+  </si>
+  <si>
+    <t>PC4 RX</t>
+  </si>
+  <si>
+    <t>PC5 TX4</t>
+  </si>
+  <si>
+    <t>PE4 RX5</t>
+  </si>
+  <si>
+    <t>PE5 TX5</t>
+  </si>
+  <si>
+    <t>PD4 RX6</t>
+  </si>
+  <si>
+    <t>PD5 TX6</t>
+  </si>
+  <si>
+    <t>PE0 RX7</t>
+  </si>
+  <si>
+    <t>PE1 RX7</t>
+  </si>
+  <si>
+    <t>TM4C123gh6PM Special Pins.</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>PIN Name</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>M0PWM0</t>
+  </si>
+  <si>
+    <t>M0PWM1</t>
+  </si>
+  <si>
+    <t>M0PWM2</t>
+  </si>
+  <si>
+    <t>M0PWM3</t>
+  </si>
+  <si>
+    <t>M0PWM4</t>
+  </si>
+  <si>
+    <t>MOPWM5</t>
+  </si>
+  <si>
+    <t>M0PWM6</t>
+  </si>
+  <si>
+    <t>M0PWM7</t>
+  </si>
+  <si>
+    <t>M1PWM0</t>
+  </si>
+  <si>
+    <t>M1PWM1</t>
+  </si>
+  <si>
+    <t>M1PWM2</t>
+  </si>
+  <si>
+    <t>M1PWM3</t>
+  </si>
+  <si>
+    <t>M1PWM4</t>
+  </si>
+  <si>
+    <t>M1PWM5</t>
+  </si>
+  <si>
+    <t>M1PWM6</t>
+  </si>
+  <si>
+    <t>M1PWM7</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PC4,PD0</t>
+  </si>
+  <si>
+    <t>PC5,PD1</t>
+  </si>
+  <si>
+    <t>PA6 PE4</t>
+  </si>
+  <si>
+    <t>PA7 PE5</t>
+  </si>
+  <si>
+    <t>PF0</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PF3</t>
   </si>
 </sst>
 </file>
@@ -735,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,6 +1798,361 @@
       </c>
       <c r="D75" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" t="s">
+        <v>183</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="209">
   <si>
     <t>Pin Out</t>
   </si>
@@ -580,6 +580,69 @@
   </si>
   <si>
     <t>PF3</t>
+  </si>
+  <si>
+    <t>Not Using</t>
+  </si>
+  <si>
+    <t>Will be connected to External ADC</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC4 (Confirm which is RX)</t>
+  </si>
+  <si>
+    <t>Leave Open</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PF4</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>EXTENAL ADC</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA3</t>
   </si>
 </sst>
 </file>
@@ -924,22 +987,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +1024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -969,8 +1034,11 @@
       <c r="F2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -983,8 +1051,11 @@
       <c r="E3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -998,7 +1069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1011,8 +1082,11 @@
       <c r="E5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1025,8 +1099,11 @@
       <c r="E6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1036,8 +1113,11 @@
       <c r="E7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1045,7 +1125,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1053,7 +1133,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1061,7 +1141,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1069,7 +1149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1079,8 +1159,11 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1090,8 +1173,11 @@
       <c r="D13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1101,8 +1187,11 @@
       <c r="D14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1112,8 +1201,11 @@
       <c r="D15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1123,8 +1215,11 @@
       <c r="D16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1134,8 +1229,11 @@
       <c r="D17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1148,8 +1246,11 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1166,7 +1267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1180,7 +1281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1194,7 +1295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1208,7 +1309,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1218,8 +1319,11 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1229,8 +1333,11 @@
       <c r="C24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1240,8 +1347,11 @@
       <c r="C25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1251,8 +1361,11 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1262,8 +1375,11 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1273,8 +1389,11 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1284,8 +1403,11 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1299,7 +1421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1312,8 +1434,11 @@
       <c r="D31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1326,8 +1451,11 @@
       <c r="D32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1340,18 +1468,21 @@
       <c r="D33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1359,7 +1490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1370,7 +1501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1381,7 +1512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1392,7 +1523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1403,12 +1534,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1421,8 +1552,11 @@
       <c r="D42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1435,8 +1569,11 @@
       <c r="D43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1449,8 +1586,11 @@
       <c r="D44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1463,8 +1603,11 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1477,8 +1620,11 @@
       <c r="D46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1491,8 +1637,11 @@
       <c r="D47" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1503,7 +1652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1514,7 +1663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1525,7 +1674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1535,8 +1684,11 @@
       <c r="C51" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1546,8 +1698,11 @@
       <c r="C52" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1557,8 +1712,11 @@
       <c r="C53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1568,8 +1726,11 @@
       <c r="C54" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1579,8 +1740,11 @@
       <c r="C55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1590,8 +1754,11 @@
       <c r="C56" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1599,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1607,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1615,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1623,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1631,15 +1798,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1652,8 +1822,11 @@
       <c r="D63" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1667,7 +1840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1678,7 +1851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1689,7 +1862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1700,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1711,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1722,7 +1895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1736,7 +1909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1750,7 +1923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1760,8 +1933,11 @@
       <c r="C72" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1772,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1786,7 +1962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1800,12 +1976,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>125</v>
       </c>
@@ -1813,7 +1989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1997,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>128</v>
       </c>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="210">
   <si>
     <t>Pin Out</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>PA3</t>
+  </si>
+  <si>
+    <t>to external ADC</t>
   </si>
 </sst>
 </file>
@@ -989,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,6 +1911,9 @@
       <c r="D70" t="s">
         <v>88</v>
       </c>
+      <c r="G70" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -1921,6 +1927,9 @@
       </c>
       <c r="D71" t="s">
         <v>89</v>
+      </c>
+      <c r="G71" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="292">
   <si>
     <t>Pin Out</t>
   </si>
@@ -309,9 +309,6 @@
     <t>RX of UART</t>
   </si>
   <si>
-    <t>Updated Functionality</t>
-  </si>
-  <si>
     <t>ADC0</t>
   </si>
   <si>
@@ -381,18 +378,9 @@
     <t>Connected to interrupt, Receive Strengh Signal, Can Measure Distance(DOUBTFUL an led)</t>
   </si>
   <si>
-    <t>Will not use spi</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
     <t>Current sensor</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>PIN No</t>
   </si>
   <si>
@@ -585,18 +573,12 @@
     <t>Not Using</t>
   </si>
   <si>
-    <t>Will be connected to External ADC</t>
-  </si>
-  <si>
     <t>PC5</t>
   </si>
   <si>
     <t>PC4 (Confirm which is RX)</t>
   </si>
   <si>
-    <t>Leave Open</t>
-  </si>
-  <si>
     <t>PE0</t>
   </si>
   <si>
@@ -621,9 +603,6 @@
     <t>PD7</t>
   </si>
   <si>
-    <t>EXTENAL ADC</t>
-  </si>
-  <si>
     <t>PA7</t>
   </si>
   <si>
@@ -645,7 +624,274 @@
     <t>PA3</t>
   </si>
   <si>
-    <t>to external ADC</t>
+    <t>IN0 ex</t>
+  </si>
+  <si>
+    <t>in 3 ex</t>
+  </si>
+  <si>
+    <t>in 4 ex</t>
+  </si>
+  <si>
+    <t>in 6 ex</t>
+  </si>
+  <si>
+    <t>in 7 ex</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>Complete Pin Connections</t>
+  </si>
+  <si>
+    <t>GNDA</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>VDDC</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>HIB</t>
+  </si>
+  <si>
+    <t>XOSC0</t>
+  </si>
+  <si>
+    <t>GNDX</t>
+  </si>
+  <si>
+    <t>XOSC1</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>OSC1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>pa3</t>
+  </si>
+  <si>
+    <t>Connect TO VCC of FT232</t>
+  </si>
+  <si>
+    <t>PE0(lm324 1)</t>
+  </si>
+  <si>
+    <t>PE2(lm324 2)</t>
+  </si>
+  <si>
+    <t>in 1 ex</t>
+  </si>
+  <si>
+    <t>in 2ex</t>
+  </si>
+  <si>
+    <t>VDD filtered through capcitors</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Connected to VDDC on 56</t>
+  </si>
+  <si>
+    <t>Cap to crystal</t>
+  </si>
+  <si>
+    <t>32.7 KHz crystals(One End)</t>
+  </si>
+  <si>
+    <t>32.7 KHz crystals(Other End)</t>
+  </si>
+  <si>
+    <t>3.3 Volts</t>
+  </si>
+  <si>
+    <t>Reset Switch</t>
+  </si>
+  <si>
+    <t>16 MHz crystal(One end)</t>
+  </si>
+  <si>
+    <t>16 MHz crystal(Other end)</t>
+  </si>
+  <si>
+    <t>Connected to VDDC on 25</t>
+  </si>
+  <si>
+    <t>Servo Motor 1</t>
+  </si>
+  <si>
+    <t>Servo Motor 2</t>
+  </si>
+  <si>
+    <t>Pin 53 Right Motor 1</t>
+  </si>
+  <si>
+    <t>16 IR proximity Sensor 2</t>
+  </si>
+  <si>
+    <t>Output of Second OpAmp of lm324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 IR Proximity Sensor 1 </t>
+  </si>
+  <si>
+    <t>output of First OpAmp of lm324</t>
+  </si>
+  <si>
+    <t>28 DB7 of LCD Data</t>
+  </si>
+  <si>
+    <t>13 Zigbee Rx</t>
+  </si>
+  <si>
+    <t>14 Zigbee Tx</t>
+  </si>
+  <si>
+    <t>FT232</t>
+  </si>
+  <si>
+    <t>64 Left Position Encoder Interrupt</t>
+  </si>
+  <si>
+    <t>63 Right Position Encoder Interrupt</t>
+  </si>
+  <si>
+    <t>54 Right Motor Pwm</t>
+  </si>
+  <si>
+    <t>55 Right Motor 2</t>
+  </si>
+  <si>
+    <t>22 RS of LCD</t>
+  </si>
+  <si>
+    <t>23 RW of LCD</t>
+  </si>
+  <si>
+    <t>24 EN of LCD</t>
+  </si>
+  <si>
+    <t>50 Left Motor PWM</t>
+  </si>
+  <si>
+    <t>51 Left Motor 1</t>
+  </si>
+  <si>
+    <t>52 Left Motor 2</t>
+  </si>
+  <si>
+    <t>JTAG TCK</t>
+  </si>
+  <si>
+    <t>JTAG TMS</t>
+  </si>
+  <si>
+    <t>JTAG TDI</t>
+  </si>
+  <si>
+    <t>JTAG TDO</t>
+  </si>
+  <si>
+    <t>46 IR Proximity Sensor 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 DB4 Of LCD </t>
+  </si>
+  <si>
+    <t>25 DB5 of LCD</t>
+  </si>
+  <si>
+    <t>27 DB6 Of LCD</t>
+  </si>
+  <si>
+    <t>PB4 (lm358 1)</t>
+  </si>
+  <si>
+    <t>in 5 ex (lm 324 5)</t>
+  </si>
+  <si>
+    <t>PD3 (lm 324 3)</t>
+  </si>
+  <si>
+    <t>Output of First OpAmp of lm358</t>
+  </si>
+  <si>
+    <t>43 IR Proximity Sensor 4</t>
+  </si>
+  <si>
+    <t>42 IR Proximity Sensor 3</t>
+  </si>
+  <si>
+    <t>31 White Line Sensor 2</t>
+  </si>
+  <si>
+    <t>32 White Line Sensor 3</t>
+  </si>
+  <si>
+    <t>30 White Line Sensor 1</t>
+  </si>
+  <si>
+    <t>Output of Third OpAmp of lm324</t>
+  </si>
+  <si>
+    <t>Servo Motor 3</t>
+  </si>
+  <si>
+    <t>PIN On New Daughter Board</t>
+  </si>
+  <si>
+    <t>Comment (If Any)</t>
+  </si>
+  <si>
+    <t>I2C ADC SCL</t>
+  </si>
+  <si>
+    <t>I2C ADC SDA</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,13 +1247,12 @@
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="57.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,222 +1266,204 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
       <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1244,16 +1471,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1266,11 +1490,8 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1280,11 +1501,8 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1294,11 +1512,8 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1308,11 +1523,8 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1322,11 +1534,11 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="G23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1336,11 +1548,11 @@
       <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1350,11 +1562,11 @@
       <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1364,11 +1576,11 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="G26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1378,11 +1590,11 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1392,11 +1604,11 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1406,11 +1618,11 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="G29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1424,7 +1636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1437,11 +1649,11 @@
       <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1454,11 +1666,11 @@
       <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="G32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1471,21 +1683,21 @@
       <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="G33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1493,7 +1705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1503,8 +1715,11 @@
       <c r="C37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1514,8 +1729,11 @@
       <c r="C38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1525,8 +1743,11 @@
       <c r="C39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1536,13 +1757,16 @@
       <c r="C40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1555,11 +1779,11 @@
       <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="G42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1572,11 +1796,11 @@
       <c r="D43" t="s">
         <v>50</v>
       </c>
-      <c r="G43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1589,11 +1813,11 @@
       <c r="D44" t="s">
         <v>51</v>
       </c>
-      <c r="G44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1606,11 +1830,11 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="G45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1623,11 +1847,11 @@
       <c r="D46" t="s">
         <v>55</v>
       </c>
-      <c r="G46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1640,11 +1864,11 @@
       <c r="D47" t="s">
         <v>57</v>
       </c>
-      <c r="G47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1655,7 +1879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1666,7 +1890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1677,7 +1901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1687,11 +1911,11 @@
       <c r="C51" t="s">
         <v>61</v>
       </c>
-      <c r="G51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1701,11 +1925,11 @@
       <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="G52" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1715,11 +1939,11 @@
       <c r="C53" t="s">
         <v>65</v>
       </c>
-      <c r="G53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1729,11 +1953,11 @@
       <c r="C54" t="s">
         <v>69</v>
       </c>
-      <c r="G54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1743,11 +1967,11 @@
       <c r="C55" t="s">
         <v>70</v>
       </c>
-      <c r="G55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1757,11 +1981,11 @@
       <c r="C56" t="s">
         <v>71</v>
       </c>
-      <c r="G56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1769,7 +1993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1777,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1785,7 +2009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1793,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1801,18 +2025,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="G62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1825,11 +2046,11 @@
       <c r="D63" t="s">
         <v>79</v>
       </c>
-      <c r="G63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1842,8 +2063,11 @@
       <c r="D64" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1854,7 +2078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1865,7 +2089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1876,7 +2100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1887,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1898,7 +2122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1911,11 +2135,11 @@
       <c r="D70" t="s">
         <v>88</v>
       </c>
-      <c r="G70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1928,11 +2152,11 @@
       <c r="D71" t="s">
         <v>89</v>
       </c>
-      <c r="G71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1942,11 +2166,11 @@
       <c r="C72" t="s">
         <v>90</v>
       </c>
-      <c r="G72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1957,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1971,7 +2195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1985,191 +2209,191 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2177,10 +2401,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2188,10 +2412,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2199,145 +2423,845 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D124">
         <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>194</v>
+      </c>
+      <c r="C136" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>211</v>
+      </c>
+      <c r="C138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C141" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>215</v>
+      </c>
+      <c r="C145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>22</v>
+      </c>
+      <c r="B148" t="s">
+        <v>199</v>
+      </c>
+      <c r="C148" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>24</v>
+      </c>
+      <c r="B150" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>27</v>
+      </c>
+      <c r="B153" t="s">
+        <v>211</v>
+      </c>
+      <c r="C153" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>28</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>29</v>
+      </c>
+      <c r="B155" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>30</v>
+      </c>
+      <c r="B156" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>31</v>
+      </c>
+      <c r="B157" t="s">
+        <v>183</v>
+      </c>
+      <c r="C157" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>32</v>
+      </c>
+      <c r="B158" t="s">
+        <v>217</v>
+      </c>
+      <c r="C158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>33</v>
+      </c>
+      <c r="B159" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>34</v>
+      </c>
+      <c r="B160" t="s">
+        <v>219</v>
+      </c>
+      <c r="C160" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>35</v>
+      </c>
+      <c r="B161" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>36</v>
+      </c>
+      <c r="B162" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>37</v>
+      </c>
+      <c r="B163" t="s">
+        <v>222</v>
+      </c>
+      <c r="C163" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>38</v>
+      </c>
+      <c r="B164" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>39</v>
+      </c>
+      <c r="B165" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>40</v>
+      </c>
+      <c r="B166" t="s">
+        <v>224</v>
+      </c>
+      <c r="C166" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>41</v>
+      </c>
+      <c r="B167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C167" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>42</v>
+      </c>
+      <c r="B168" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>43</v>
+      </c>
+      <c r="B169" t="s">
+        <v>192</v>
+      </c>
+      <c r="C169" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>44</v>
+      </c>
+      <c r="B170" t="s">
+        <v>191</v>
+      </c>
+      <c r="C170" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>45</v>
+      </c>
+      <c r="B171" t="s">
+        <v>196</v>
+      </c>
+      <c r="C171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>46</v>
+      </c>
+      <c r="B172" t="s">
+        <v>197</v>
+      </c>
+      <c r="C172" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>47</v>
+      </c>
+      <c r="B173" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>48</v>
+      </c>
+      <c r="B174" t="s">
+        <v>226</v>
+      </c>
+      <c r="C174" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>49</v>
+      </c>
+      <c r="B175" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>50</v>
+      </c>
+      <c r="B176" t="s">
+        <v>207</v>
+      </c>
+      <c r="C176" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>51</v>
+      </c>
+      <c r="B177" t="s">
+        <v>228</v>
+      </c>
+      <c r="C177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>52</v>
+      </c>
+      <c r="B178" t="s">
+        <v>229</v>
+      </c>
+      <c r="C178" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>53</v>
+      </c>
+      <c r="B179" t="s">
+        <v>193</v>
+      </c>
+      <c r="C179" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>54</v>
+      </c>
+      <c r="B180" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>55</v>
+      </c>
+      <c r="B181" t="s">
+        <v>211</v>
+      </c>
+      <c r="C181" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>56</v>
+      </c>
+      <c r="B182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>57</v>
+      </c>
+      <c r="B183" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>58</v>
+      </c>
+      <c r="B184" t="s">
+        <v>133</v>
+      </c>
+      <c r="C184" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>60</v>
+      </c>
+      <c r="B186" t="s">
+        <v>132</v>
+      </c>
+      <c r="C186" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>61</v>
+      </c>
+      <c r="B187" t="s">
+        <v>127</v>
+      </c>
+      <c r="C187" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>62</v>
+      </c>
+      <c r="B188" t="s">
+        <v>128</v>
+      </c>
+      <c r="C188" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>63</v>
+      </c>
+      <c r="B189" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>64</v>
+      </c>
+      <c r="B190" t="s">
+        <v>130</v>
+      </c>
+      <c r="C190" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
       <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="293">
   <si>
     <t>Pin Out</t>
   </si>
@@ -810,9 +810,6 @@
     <t>22 RS of LCD</t>
   </si>
   <si>
-    <t>23 RW of LCD</t>
-  </si>
-  <si>
     <t>24 EN of LCD</t>
   </si>
   <si>
@@ -892,6 +889,12 @@
   </si>
   <si>
     <t>I2C ADC SDA</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT A and B of to GPIO expander shorted and connected </t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,10 +1269,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
         <v>288</v>
-      </c>
-      <c r="F1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,7 +1552,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1780,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,7 +1834,7 @@
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,7 +1851,7 @@
         <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2824,7 +2827,7 @@
         <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,7 +2882,7 @@
         <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,7 +2893,7 @@
         <v>182</v>
       </c>
       <c r="C156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,7 +2904,7 @@
         <v>183</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3033,7 @@
         <v>192</v>
       </c>
       <c r="C169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3044,7 @@
         <v>191</v>
       </c>
       <c r="C170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3055,7 @@
         <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3066,7 @@
         <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3077,7 @@
         <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3088,7 @@
         <v>226</v>
       </c>
       <c r="C174" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3099,7 @@
         <v>227</v>
       </c>
       <c r="C175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,7 +3110,7 @@
         <v>207</v>
       </c>
       <c r="C176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3121,7 @@
         <v>228</v>
       </c>
       <c r="C177" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3132,7 @@
         <v>229</v>
       </c>
       <c r="C178" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3143,7 @@
         <v>193</v>
       </c>
       <c r="C179" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3187,7 @@
         <v>134</v>
       </c>
       <c r="C183" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,7 +3198,7 @@
         <v>133</v>
       </c>
       <c r="C184" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3209,7 @@
         <v>131</v>
       </c>
       <c r="C185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,7 +3220,7 @@
         <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3231,7 @@
         <v>127</v>
       </c>
       <c r="C187" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3239,7 +3242,7 @@
         <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3253,7 @@
         <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3264,7 @@
         <v>130</v>
       </c>
       <c r="C190" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="293">
   <si>
     <t>Pin Out</t>
   </si>
@@ -27,24 +27,15 @@
     <t>Functionality</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>RSSI</t>
   </si>
   <si>
-    <t>INT0</t>
-  </si>
-  <si>
     <t>MOSI</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>SPI1</t>
-  </si>
-  <si>
     <t>MISO</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>ADC to check the level of battery voltage</t>
   </si>
   <si>
-    <t>ADC7</t>
-  </si>
-  <si>
     <t>WL1</t>
   </si>
   <si>
@@ -117,21 +105,6 @@
     <t>WL3</t>
   </si>
   <si>
-    <t>ADC of MCU</t>
-  </si>
-  <si>
-    <t>ADC8</t>
-  </si>
-  <si>
-    <t>ADC9</t>
-  </si>
-  <si>
-    <t>ADC10</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
     <t>WL7</t>
   </si>
   <si>
@@ -144,54 +117,9 @@
     <t>WL6</t>
   </si>
   <si>
-    <t>adc/ nc</t>
-  </si>
-  <si>
-    <t>adc /nc</t>
-  </si>
-  <si>
-    <t>adc/nc</t>
-  </si>
-  <si>
-    <t>Sharp Sensor 3</t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
-    <t>ADC11</t>
-  </si>
-  <si>
-    <t>IR prox 3</t>
-  </si>
-  <si>
-    <t>IR prox 4</t>
-  </si>
-  <si>
-    <t>ADC12</t>
-  </si>
-  <si>
-    <t>ADC13</t>
-  </si>
-  <si>
-    <t>sharp sensor 4</t>
-  </si>
-  <si>
-    <t>sharp sensor 5</t>
-  </si>
-  <si>
-    <t>ADC 14</t>
-  </si>
-  <si>
-    <t>ADC 15</t>
-  </si>
-  <si>
-    <t>ir prox 5</t>
-  </si>
-  <si>
-    <t>ADC 16</t>
-  </si>
-  <si>
     <t>not present</t>
   </si>
   <si>
@@ -252,18 +180,6 @@
     <t>c12</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int1</t>
-  </si>
-  <si>
-    <t>int2</t>
-  </si>
-  <si>
-    <t>int NC</t>
-  </si>
-  <si>
     <t>C22</t>
   </si>
   <si>
@@ -282,24 +198,12 @@
     <t>Buzzer</t>
   </si>
   <si>
-    <t>ADC17</t>
-  </si>
-  <si>
-    <t>ADC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal I/O pin </t>
-  </si>
-  <si>
     <t>DAC Out</t>
   </si>
   <si>
     <t>TX of UART</t>
   </si>
   <si>
-    <t>UART2</t>
-  </si>
-  <si>
     <t>RS232 RX</t>
   </si>
   <si>
@@ -309,75 +213,15 @@
     <t>RX of UART</t>
   </si>
   <si>
-    <t>ADC0</t>
-  </si>
-  <si>
-    <t>ir prox 8</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>gnd1</t>
-  </si>
-  <si>
     <t>DATA+</t>
   </si>
   <si>
-    <t>UART0</t>
-  </si>
-  <si>
     <t>DATA-</t>
   </si>
   <si>
     <t>VCC USB</t>
   </si>
   <si>
-    <t>5V(400mA)</t>
-  </si>
-  <si>
-    <t>5v 300mA</t>
-  </si>
-  <si>
-    <t>5v 400ma</t>
-  </si>
-  <si>
-    <t>Sharp IR 1</t>
-  </si>
-  <si>
-    <t>ADC1</t>
-  </si>
-  <si>
-    <t>UART1</t>
-  </si>
-  <si>
-    <t>Zigbeetx</t>
-  </si>
-  <si>
-    <t>ir 1</t>
-  </si>
-  <si>
-    <t>Zigbeerx</t>
-  </si>
-  <si>
-    <t>sharp 2</t>
-  </si>
-  <si>
-    <t>ir prox 2</t>
-  </si>
-  <si>
-    <t>ADC2</t>
-  </si>
-  <si>
-    <t>ADC3</t>
-  </si>
-  <si>
-    <t>ADC4</t>
-  </si>
-  <si>
-    <t>Connected to interrupt, Receive Strengh Signal, Can Measure Distance(DOUBTFUL an led)</t>
-  </si>
-  <si>
     <t>Current sensor</t>
   </si>
   <si>
@@ -489,9 +333,6 @@
     <t>Pin</t>
   </si>
   <si>
-    <t>Generator</t>
-  </si>
-  <si>
     <t>M0PWM0</t>
   </si>
   <si>
@@ -576,9 +417,6 @@
     <t>PC5</t>
   </si>
   <si>
-    <t>PC4 (Confirm which is RX)</t>
-  </si>
-  <si>
     <t>PE0</t>
   </si>
   <si>
@@ -624,21 +462,6 @@
     <t>PA3</t>
   </si>
   <si>
-    <t>IN0 ex</t>
-  </si>
-  <si>
-    <t>in 3 ex</t>
-  </si>
-  <si>
-    <t>in 4 ex</t>
-  </si>
-  <si>
-    <t>in 6 ex</t>
-  </si>
-  <si>
-    <t>in 7 ex</t>
-  </si>
-  <si>
     <t>PC2</t>
   </si>
   <si>
@@ -711,9 +534,6 @@
     <t>VDDA</t>
   </si>
   <si>
-    <t>pa3</t>
-  </si>
-  <si>
     <t>Connect TO VCC of FT232</t>
   </si>
   <si>
@@ -723,12 +543,6 @@
     <t>PE2(lm324 2)</t>
   </si>
   <si>
-    <t>in 1 ex</t>
-  </si>
-  <si>
-    <t>in 2ex</t>
-  </si>
-  <si>
     <t>VDD filtered through capcitors</t>
   </si>
   <si>
@@ -891,10 +705,202 @@
     <t>I2C ADC SDA</t>
   </si>
   <si>
-    <t>gnd</t>
-  </si>
-  <si>
     <t xml:space="preserve">INT A and B of to GPIO expander shorted and connected </t>
+  </si>
+  <si>
+    <t>External UART</t>
+  </si>
+  <si>
+    <t>Pin No.</t>
+  </si>
+  <si>
+    <t>External Adc INT0</t>
+  </si>
+  <si>
+    <t>USB connection with uC PC4</t>
+  </si>
+  <si>
+    <t>USB connection with uC PC5</t>
+  </si>
+  <si>
+    <t>External Adc INT1</t>
+  </si>
+  <si>
+    <t>External Adc INT2</t>
+  </si>
+  <si>
+    <t>External Adc INT3</t>
+  </si>
+  <si>
+    <t>External Adc INT4</t>
+  </si>
+  <si>
+    <t>External Adc INT6</t>
+  </si>
+  <si>
+    <t>External Adc INT7</t>
+  </si>
+  <si>
+    <t>USB connection going to the ATMEGA2560</t>
+  </si>
+  <si>
+    <t>microcontroller via FT232 USB to serial</t>
+  </si>
+  <si>
+    <t>converter.</t>
+  </si>
+  <si>
+    <t>IR Proximity sensor 8</t>
+  </si>
+  <si>
+    <t>5V System</t>
+  </si>
+  <si>
+    <t>SHARP IR Range Sensor 1</t>
+  </si>
+  <si>
+    <t>IR Proximity Sensor 1</t>
+  </si>
+  <si>
+    <t>XBee RXD</t>
+  </si>
+  <si>
+    <t>XBee TXD</t>
+  </si>
+  <si>
+    <t>SHARP IR Range Sensor 2</t>
+  </si>
+  <si>
+    <t>IR Proximity Sensor 2</t>
+  </si>
+  <si>
+    <t>Sharp IR Sensors 1and 5
+Disable</t>
+  </si>
+  <si>
+    <t>IR Proximity Sensor Disable</t>
+  </si>
+  <si>
+    <t>White Line Sensors Disable</t>
+  </si>
+  <si>
+    <t>Sharp IR Range Finder 3</t>
+  </si>
+  <si>
+    <t>IR Proximity Sensor 3</t>
+  </si>
+  <si>
+    <t>IR Proximity Sensor 4</t>
+  </si>
+  <si>
+    <t>Sharp IR Range Finder 4</t>
+  </si>
+  <si>
+    <t>Sharp IR Range Finder 5</t>
+  </si>
+  <si>
+    <t>IR Proximity Sensor 5</t>
+  </si>
+  <si>
+    <t>Current sense analog value</t>
+  </si>
+  <si>
+    <t>IR Proximity sensor 8 analog value</t>
+  </si>
+  <si>
+    <t>5V System Voltage. Can be used for powering
+up any digital device with current limit of
+400mA.</t>
+  </si>
+  <si>
+    <t>5V System Voltage. Can be used for powering
+up any digital device with current limit of
+300mA.</t>
+  </si>
+  <si>
+    <t>Analog output of Sharp IR range Sensor 1</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 1</t>
+  </si>
+  <si>
+    <t>XBee wireless module Serial data in</t>
+  </si>
+  <si>
+    <t>XBee wireless module Serial data out</t>
+  </si>
+  <si>
+    <t>Analog output of Sharp IR range sensor 2</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 2</t>
+  </si>
+  <si>
+    <t>To capture the RSSI signal</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 1</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 2</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 3</t>
+  </si>
+  <si>
+    <t>5V system Voltage. Can be used for powering
+up any digital device. Current Limit: 400mA.</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 4</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 5</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 6</t>
+  </si>
+  <si>
+    <t>Analog output of white line sensor 7</t>
+  </si>
+  <si>
+    <t>Analog output of Sharp IR range sensor 3</t>
+  </si>
+  <si>
+    <t>Analog output of Sharp IR range sensor 4</t>
+  </si>
+  <si>
+    <t>Analog output of Sharp IR range sensor 5</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 3</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 4</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 5</t>
+  </si>
+  <si>
+    <t>Output of Right position encoder (0-5V)</t>
+  </si>
+  <si>
+    <t>Output of Left position encoder (0-5V)</t>
+  </si>
+  <si>
+    <t>Output of C2 position encoder (0-5V)</t>
+  </si>
+  <si>
+    <t>Output of C1 position encoder (0-5V)</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 6</t>
+  </si>
+  <si>
+    <t>Analog output of IR Proximity sensor 7</t>
+  </si>
+  <si>
+    <t>Input, V&gt;0.65V turns on the Buzzer</t>
   </si>
 </sst>
 </file>
@@ -930,13 +936,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,16 +1250,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
@@ -1266,1332 +1274,1263 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
+        <v>261</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>107</v>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>108</v>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="D39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>231</v>
+      </c>
+      <c r="B126" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>154</v>
-      </c>
-      <c r="B107" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>159</v>
-      </c>
-      <c r="C109" t="s">
-        <v>175</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>160</v>
-      </c>
-      <c r="C110" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" t="s">
-        <v>134</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>163</v>
-      </c>
-      <c r="C114" t="s">
-        <v>132</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>164</v>
-      </c>
-      <c r="C115" t="s">
-        <v>176</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>167</v>
-      </c>
-      <c r="C118" t="s">
-        <v>128</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>168</v>
-      </c>
-      <c r="C119" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" t="s">
-        <v>179</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>170</v>
-      </c>
-      <c r="C121" t="s">
-        <v>180</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>171</v>
-      </c>
-      <c r="C122" t="s">
-        <v>181</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" t="s">
-        <v>182</v>
-      </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
-      <c r="C124" t="s">
-        <v>183</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2621,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2632,10 +2571,10 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C132" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2643,10 +2582,10 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C133" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2654,10 +2593,10 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2665,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2687,10 +2626,10 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,10 +2637,10 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C138" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2709,10 +2648,10 @@
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2720,10 +2659,10 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,10 +2670,10 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,10 +2681,10 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2753,7 +2692,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>213</v>
+        <v>154</v>
+      </c>
+      <c r="C143" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +2703,10 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>155</v>
+      </c>
+      <c r="C144" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,10 +2714,10 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,10 +2725,10 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,10 +2736,10 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,10 +2747,10 @@
         <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2758,10 @@
         <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="C149" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2769,10 @@
         <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C150" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,10 +2780,10 @@
         <v>25</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,10 +2791,10 @@
         <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,10 +2802,10 @@
         <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,10 +2813,10 @@
         <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2824,10 @@
         <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="C155" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,10 +2835,10 @@
         <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C156" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,10 +2846,10 @@
         <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C157" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,10 +2857,10 @@
         <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,7 +2868,10 @@
         <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,10 +2879,10 @@
         <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,10 +2890,10 @@
         <v>35</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,10 +2901,10 @@
         <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,10 +2912,10 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,10 +2923,10 @@
         <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,10 +2934,10 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,10 +2945,10 @@
         <v>40</v>
       </c>
       <c r="B166" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,10 +2956,10 @@
         <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,10 +2967,10 @@
         <v>42</v>
       </c>
       <c r="B168" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C168" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,10 +2978,10 @@
         <v>43</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,10 +2989,10 @@
         <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C170" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,10 +3011,10 @@
         <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C172" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,10 +3022,10 @@
         <v>47</v>
       </c>
       <c r="B173" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="C173" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,10 +3033,10 @@
         <v>48</v>
       </c>
       <c r="B174" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="C174" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,10 +3044,10 @@
         <v>49</v>
       </c>
       <c r="B175" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C175" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,10 +3055,10 @@
         <v>50</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C176" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,10 +3066,10 @@
         <v>51</v>
       </c>
       <c r="B177" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="C177" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,10 +3077,10 @@
         <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,10 +3088,10 @@
         <v>53</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C179" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,10 +3099,10 @@
         <v>54</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,10 +3110,10 @@
         <v>55</v>
       </c>
       <c r="B181" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="C181" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,10 +3121,10 @@
         <v>56</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="C182" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,10 +3132,10 @@
         <v>57</v>
       </c>
       <c r="B183" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C183" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,10 +3143,10 @@
         <v>58</v>
       </c>
       <c r="B184" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="C184" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,10 +3154,10 @@
         <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="C185" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,10 +3165,10 @@
         <v>60</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C186" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,10 +3176,10 @@
         <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3239,10 +3187,10 @@
         <v>62</v>
       </c>
       <c r="B188" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="C188" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,10 +3198,10 @@
         <v>63</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C189" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,10 +3209,10 @@
         <v>64</v>
       </c>
       <c r="B190" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C190" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/FireBird Board Pin Out.xlsx
+++ b/FireBird Board Pin Out.xlsx
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D76"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
